--- a/controller/ficha_familiar.xlsx
+++ b/controller/ficha_familiar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>CODIGO</t>
   </si>
@@ -107,34 +107,37 @@
     <t>1 1 1 1</t>
   </si>
   <si>
-    <t>13 años, 5 meses y 3 dias</t>
+    <t>6 años, 0 meses y 5 dias</t>
   </si>
   <si>
     <t>Masculino</t>
   </si>
   <si>
-    <t>2004-04-01</t>
+    <t>2011-09-01</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>Casado</t>
+  </si>
+  <si>
+    <t>Nivel superior</t>
+  </si>
+  <si>
+    <t>2017-09-06 15:31:10</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>No aplica</t>
-  </si>
-  <si>
-    <t>Nivel superior</t>
-  </si>
-  <si>
-    <t>2017-09-03 19:28:11</t>
-  </si>
-  <si>
-    <t>2017-09-15</t>
-  </si>
-  <si>
-    <t>camilo ruiz</t>
-  </si>
-  <si>
-    <t>Zona 2</t>
+    <t>2017-09-04</t>
+  </si>
+  <si>
+    <t>usuario prueba</t>
+  </si>
+  <si>
+    <t>Zona 1</t>
   </si>
   <si>
     <t>NN</t>
@@ -146,28 +149,16 @@
     <t>Cauca</t>
   </si>
   <si>
-    <t>Abuelo</t>
-  </si>
-  <si>
-    <t>Cafesalud E.P.S. S.A.</t>
+    <t>ANASWAYUU</t>
   </si>
   <si>
     <t>2 2 2 2</t>
   </si>
   <si>
-    <t>10 años, 4 meses y 29 dias</t>
-  </si>
-  <si>
-    <t>2007-04-05</t>
-  </si>
-  <si>
-    <t>123 123 123 123</t>
-  </si>
-  <si>
-    <t>5 años, 0 meses y 3 dias</t>
-  </si>
-  <si>
-    <t>2012-09-01</t>
+    <t>0 años, 0 meses y 0 dias</t>
+  </si>
+  <si>
+    <t>2017-09-06</t>
   </si>
 </sst>
 </file>
@@ -506,7 +497,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AC4"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +506,7 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="9.283447" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -609,7 +600,7 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -657,48 +648,48 @@
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T2">
-        <v>1061716139</v>
+        <v>1</v>
       </c>
       <c r="U2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA2" t="s">
         <v>41</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>43</v>
       </c>
       <c r="AB2" t="s">
         <v>44</v>
       </c>
       <c r="AC2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:29">
       <c r="A3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>45</v>
@@ -719,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
@@ -746,132 +737,43 @@
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="R3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T3">
-        <v>1061716139</v>
+        <v>1</v>
       </c>
       <c r="U3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA3" t="s">
         <v>41</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>43</v>
       </c>
       <c r="AB3" t="s">
         <v>44</v>
       </c>
       <c r="AC3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
-      <c r="A4">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4">
-        <v>123</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4" t="s">
-        <v>37</v>
-      </c>
-      <c r="T4">
-        <v>1061716139</v>
-      </c>
-      <c r="U4" t="s">
-        <v>38</v>
-      </c>
-      <c r="V4" t="s">
-        <v>39</v>
-      </c>
-      <c r="W4" t="s">
-        <v>40</v>
-      </c>
-      <c r="X4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y4" t="s">
         <v>41</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/controller/ficha_familiar.xlsx
+++ b/controller/ficha_familiar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
   <si>
     <t>CODIGO</t>
   </si>
@@ -104,61 +104,238 @@
     <t>REGIMEN</t>
   </si>
   <si>
+    <t>De donde se toma el agua</t>
+  </si>
+  <si>
+    <t>Tensión arterial sistólica</t>
+  </si>
+  <si>
+    <t>Tensión arterial diastólica</t>
+  </si>
+  <si>
+    <t>Frecuencia cardias</t>
+  </si>
+  <si>
+    <t>Frecuencia respiratoria</t>
+  </si>
+  <si>
+    <t>Muertes en menores de 1 año</t>
+  </si>
+  <si>
+    <t>Desnutrición</t>
+  </si>
+  <si>
+    <t>Animalia congénita</t>
+  </si>
+  <si>
+    <t>Discapacidad</t>
+  </si>
+  <si>
+    <t>Embarazo producto de abuso</t>
+  </si>
+  <si>
+    <t>Recién nacido menor de 28 días</t>
+  </si>
+  <si>
+    <t>Recién nacido parto domiciliario</t>
+  </si>
+  <si>
+    <t>Vacunas incompletas</t>
+  </si>
+  <si>
+    <t>Niños sin C y D</t>
+  </si>
+  <si>
+    <t>Niño sin evaluación odontológica</t>
+  </si>
+  <si>
+    <t>Niño menor a 5 años sin estructura AIEPI</t>
+  </si>
+  <si>
+    <t>Problemas visuales y auditivos</t>
+  </si>
+  <si>
+    <t>Caries</t>
+  </si>
+  <si>
+    <t>Deserción escolar</t>
+  </si>
+  <si>
+    <t>Violación</t>
+  </si>
+  <si>
+    <t>Violencia sexual</t>
+  </si>
+  <si>
+    <t>Maltrato infantil</t>
+  </si>
+  <si>
+    <t>Abandono</t>
+  </si>
+  <si>
+    <t>HTA</t>
+  </si>
+  <si>
+    <t>Diabetes</t>
+  </si>
+  <si>
+    <t>Escasa adherencia tratamiento medico</t>
+  </si>
+  <si>
+    <t>Compilación de órganos blancos</t>
+  </si>
+  <si>
+    <t>TBE</t>
+  </si>
+  <si>
+    <t>Sin marca BCG en el hombro</t>
+  </si>
+  <si>
+    <t>Enfermedades de la piel</t>
+  </si>
+  <si>
+    <t>Síntomas respiratorios</t>
+  </si>
+  <si>
+    <t>Hombre mayor de 50 años con evaluación de próstata</t>
+  </si>
+  <si>
+    <t>Sin evaluación nutricional</t>
+  </si>
+  <si>
+    <t>Mujer mayor de 45 años sin perfil epódica</t>
+  </si>
+  <si>
+    <t>No adscrito al programa adulto mayor</t>
+  </si>
+  <si>
+    <t>Discapacidad psicomotora</t>
+  </si>
+  <si>
+    <t>Enfermedad mental y trastorno represivo y retardo</t>
+  </si>
+  <si>
+    <t>Retardo psicosocial</t>
+  </si>
+  <si>
+    <t>Síntomas de suicidio</t>
+  </si>
+  <si>
+    <t>Problemas de conducta</t>
+  </si>
+  <si>
+    <t>Víctima de violencia</t>
+  </si>
+  <si>
+    <t>Embarazo</t>
+  </si>
+  <si>
+    <t>Gestante sin PGN</t>
+  </si>
+  <si>
+    <t>Gestante sin suplemento acido folio y hierro</t>
+  </si>
+  <si>
+    <t>Gestante sin Psicoprofilaxis</t>
+  </si>
+  <si>
+    <t>Embarazo producto de abuso sexual</t>
+  </si>
+  <si>
+    <t>Enfermedad de transmisión sexual</t>
+  </si>
+  <si>
+    <t>Conducta sexual de riesgo</t>
+  </si>
+  <si>
+    <t>Sin citología</t>
+  </si>
+  <si>
+    <t>Enfermedades gastrointestinales</t>
+  </si>
+  <si>
+    <t>Enfermedades de la cavidad oral</t>
+  </si>
+  <si>
+    <t>Tratamientos odontológicos sin terminar</t>
+  </si>
+  <si>
+    <t>Pacientes desdentados</t>
+  </si>
+  <si>
+    <t>Sin evaluación odontológica</t>
+  </si>
+  <si>
+    <t>No higiene oral</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
     <t>1 1 1 1</t>
   </si>
   <si>
     <t>6 años, 0 meses y 5 dias</t>
   </si>
   <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>2011-09-01</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>Casado</t>
+  </si>
+  <si>
+    <t>Nivel superior</t>
+  </si>
+  <si>
+    <t>2017-09-06 15:31:10</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>2017-09-04</t>
+  </si>
+  <si>
+    <t>usuario prueba</t>
+  </si>
+  <si>
+    <t>Zona 1</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>Villa Rica</t>
+  </si>
+  <si>
+    <t>Cauca</t>
+  </si>
+  <si>
+    <t>ANASWAYUU</t>
+  </si>
+  <si>
+    <t>2 2 2 2</t>
+  </si>
+  <si>
+    <t>0 años, 0 meses y 0 dias</t>
+  </si>
+  <si>
     <t>Masculino</t>
   </si>
   <si>
-    <t>2011-09-01</t>
-  </si>
-  <si>
-    <t>si</t>
-  </si>
-  <si>
-    <t>Casado</t>
-  </si>
-  <si>
-    <t>Nivel superior</t>
-  </si>
-  <si>
-    <t>2017-09-06 15:31:10</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>2017-09-04</t>
-  </si>
-  <si>
-    <t>usuario prueba</t>
-  </si>
-  <si>
-    <t>Zona 1</t>
-  </si>
-  <si>
-    <t>NN</t>
-  </si>
-  <si>
-    <t>Villa Rica</t>
-  </si>
-  <si>
-    <t>Cauca</t>
-  </si>
-  <si>
-    <t>ANASWAYUU</t>
-  </si>
-  <si>
-    <t>2 2 2 2</t>
-  </si>
-  <si>
-    <t>0 años, 0 meses y 0 dias</t>
-  </si>
-  <si>
     <t>2017-09-06</t>
+  </si>
+  <si>
+    <t>ACUEDUCTO</t>
+  </si>
+  <si>
+    <t>RECOGIDA</t>
   </si>
 </sst>
 </file>
@@ -497,7 +674,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:DB4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,7 +686,7 @@
     <col min="2" max="2" width="9.283447" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:106">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -597,40 +774,220 @@
       <c r="AC1" t="s">
         <v>28</v>
       </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>75</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>35</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>64</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:106">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -648,78 +1005,252 @@
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="T2">
         <v>1</v>
       </c>
       <c r="U2" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="V2" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="W2" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="X2" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="Y2" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="Z2" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="AA2" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="AB2" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AC2" t="s">
-        <v>41</v>
+        <v>97</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>93</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>93</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>93</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>93</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>93</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>93</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>93</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>93</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>93</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:106">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -737,43 +1268,537 @@
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="R3" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="S3" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="T3">
         <v>1</v>
       </c>
       <c r="U3" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="V3" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="W3" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="X3" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="Y3" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="Z3" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="AA3" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="AB3" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AC3" t="s">
-        <v>41</v>
+        <v>97</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>97</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>97</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>97</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>97</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>97</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:106">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>93</v>
+      </c>
+      <c r="R4" t="s">
+        <v>93</v>
+      </c>
+      <c r="S4" t="s">
+        <v>94</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4" t="s">
+        <v>95</v>
+      </c>
+      <c r="V4" t="s">
+        <v>96</v>
+      </c>
+      <c r="W4" t="s">
+        <v>97</v>
+      </c>
+      <c r="X4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>97</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>97</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/controller/ficha_familiar.xlsx
+++ b/controller/ficha_familiar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
   <si>
     <t>CODIGO</t>
   </si>
@@ -107,6 +107,63 @@
     <t>De donde se toma el agua</t>
   </si>
   <si>
+    <t>La basura es</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>Iluminación adecuada</t>
+  </si>
+  <si>
+    <t>Ventilación adecuada</t>
+  </si>
+  <si>
+    <t>Roedores</t>
+  </si>
+  <si>
+    <t>Reservorios de agua</t>
+  </si>
+  <si>
+    <t>Anjeos puertas y ventanas</t>
+  </si>
+  <si>
+    <t>Uso de toldillos</t>
+  </si>
+  <si>
+    <t>Material predominante en piso, techo, paredes</t>
+  </si>
+  <si>
+    <t>Con letrina pero alguien no la usa</t>
+  </si>
+  <si>
+    <t>Plagas (Garra patilla)</t>
+  </si>
+  <si>
+    <t>Convivencia inadecuada con animales</t>
+  </si>
+  <si>
+    <t>Mala disposición de plaguicidas</t>
+  </si>
+  <si>
+    <t>Contaminación del agua</t>
+  </si>
+  <si>
+    <t>Accidentes ofídico</t>
+  </si>
+  <si>
+    <t>Usan plaguicidas</t>
+  </si>
+  <si>
+    <t>No siempre hierve el agua</t>
+  </si>
+  <si>
+    <t>Áreas endémicas de enfermedades de salud publica</t>
+  </si>
+  <si>
+    <t>Mala higiene en preparación de alimentos</t>
+  </si>
+  <si>
     <t>Tensión arterial sistólica</t>
   </si>
   <si>
@@ -278,7 +335,7 @@
     <t>6 años, 0 meses y 5 dias</t>
   </si>
   <si>
-    <t>Femenino</t>
+    <t>Masculino</t>
   </si>
   <si>
     <t>2011-09-01</t>
@@ -308,9 +365,6 @@
     <t>Zona 1</t>
   </si>
   <si>
-    <t>NN</t>
-  </si>
-  <si>
     <t>Villa Rica</t>
   </si>
   <si>
@@ -320,22 +374,31 @@
     <t>ANASWAYUU</t>
   </si>
   <si>
+    <t>ACUEDUCTO</t>
+  </si>
+  <si>
+    <t>RECOGIDA</t>
+  </si>
+  <si>
     <t>2 2 2 2</t>
   </si>
   <si>
     <t>0 años, 0 meses y 0 dias</t>
   </si>
   <si>
-    <t>Masculino</t>
-  </si>
-  <si>
     <t>2017-09-06</t>
   </si>
   <si>
-    <t>ACUEDUCTO</t>
-  </si>
-  <si>
-    <t>RECOGIDA</t>
+    <t>123 123 123 123</t>
+  </si>
+  <si>
+    <t>12313 132 332131 3</t>
+  </si>
+  <si>
+    <t>0 años, 0 meses y 5 dias</t>
+  </si>
+  <si>
+    <t>2017-09-01</t>
   </si>
 </sst>
 </file>
@@ -674,7 +737,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:DB4"/>
+  <dimension ref="A1:DC5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,10 +746,10 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="22.280273" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106">
+    <row r="1" spans="1:107">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -778,216 +841,270 @@
         <v>29</v>
       </c>
       <c r="AE1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AN1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AP1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AR1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AS1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AT1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AU1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AV1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AW1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AX1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AY1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AZ1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BA1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BB1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BC1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>70</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>75</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>35</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>64</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CJ1" t="s">
+      <c r="CV1" t="s">
         <v>83</v>
       </c>
-      <c r="CK1" t="s">
-        <v>84</v>
+      <c r="CW1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>100</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>101</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:106">
+    <row r="2" spans="1:107">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="K2" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -1005,252 +1122,312 @@
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="R2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="S2" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="T2">
         <v>1</v>
       </c>
       <c r="U2" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="V2" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="W2" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="X2" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="Y2" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="Z2" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="AA2" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="AB2" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="AC2" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="AD2" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="AE2" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="AF2" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AH2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="AI2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="AJ2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="AK2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="AL2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="AM2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="AN2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="AO2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="AP2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="AQ2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="AR2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="AS2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="AT2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="AU2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="AV2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="AW2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="AX2" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="AY2" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="AZ2" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="BA2" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="BB2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="BC2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="BD2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="BE2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="BF2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="BG2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="BH2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="BI2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="BJ2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="BK2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="BL2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="BM2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="BN2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="BO2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="BP2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="BQ2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="BR2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="BS2" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="BT2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="BU2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="BV2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="BW2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="BX2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="BY2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="BZ2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="CA2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="CB2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="CC2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="CD2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="CE2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="CF2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="CG2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="CH2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="CI2" t="s">
-        <v>97</v>
+        <v>112</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:106">
+    <row r="3" spans="1:107">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="I3" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="J3" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="K3" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -1268,537 +1445,923 @@
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="R3" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="S3" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="T3">
         <v>1</v>
       </c>
       <c r="U3" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="V3" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="W3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="X3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="Y3" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="Z3" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="AA3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="AB3" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="AC3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="AD3" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="AE3" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="AF3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="AG3" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AH3" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AI3" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AJ3" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AK3" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AL3" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AM3" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AN3" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AO3" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AP3" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AQ3" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AR3" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AS3" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AT3" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AU3" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AV3" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AW3" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AX3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="AY3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="AZ3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="BA3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="BB3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="BC3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="BD3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="BE3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="BF3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="BG3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="BH3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="BI3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="BJ3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="BK3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="BL3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="BM3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="BN3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="BO3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="BP3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="BQ3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="BR3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="BS3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="BT3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="BU3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="BV3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="BW3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="BX3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="BY3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="BZ3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="CA3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="CB3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="CC3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="CD3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="CE3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="CF3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="CG3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="CH3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="CI3" t="s">
-        <v>97</v>
+        <v>31</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>31</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>31</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:106">
+    <row r="4" spans="1:107">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="C4">
+        <v>123</v>
+      </c>
+      <c r="D4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>112</v>
+      </c>
+      <c r="R4" t="s">
+        <v>112</v>
+      </c>
+      <c r="S4" t="s">
+        <v>113</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4" t="s">
+        <v>114</v>
+      </c>
+      <c r="V4" t="s">
+        <v>115</v>
+      </c>
+      <c r="W4" t="s">
+        <v>31</v>
+      </c>
+      <c r="X4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AX4">
+        <v>1</v>
+      </c>
+      <c r="AY4">
+        <v>1</v>
+      </c>
+      <c r="AZ4">
+        <v>1</v>
+      </c>
+      <c r="BA4">
+        <v>1</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>31</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>31</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:107">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J4" t="s">
-        <v>91</v>
-      </c>
-      <c r="K4" t="s">
-        <v>92</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>93</v>
-      </c>
-      <c r="R4" t="s">
-        <v>93</v>
-      </c>
-      <c r="S4" t="s">
-        <v>94</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4" t="s">
-        <v>95</v>
-      </c>
-      <c r="V4" t="s">
-        <v>96</v>
-      </c>
-      <c r="W4" t="s">
-        <v>97</v>
-      </c>
-      <c r="X4" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5">
+        <v>342342</v>
+      </c>
+      <c r="D5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" t="s">
         <v>106</v>
       </c>
-      <c r="AF4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CG4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CH4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CI4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CJ4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CK4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CL4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CM4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CN4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CO4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CP4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CQ4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CR4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CS4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CT4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CU4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CW4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CX4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CY4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CZ4" t="s">
-        <v>97</v>
-      </c>
-      <c r="DA4" t="s">
-        <v>97</v>
-      </c>
-      <c r="DB4" t="s">
-        <v>97</v>
+      <c r="F5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>112</v>
+      </c>
+      <c r="R5" t="s">
+        <v>112</v>
+      </c>
+      <c r="S5" t="s">
+        <v>113</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5" t="s">
+        <v>114</v>
+      </c>
+      <c r="V5" t="s">
+        <v>115</v>
+      </c>
+      <c r="W5" t="s">
+        <v>31</v>
+      </c>
+      <c r="X5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CX5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CY5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>31</v>
+      </c>
+      <c r="DA5" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB5" t="s">
+        <v>31</v>
+      </c>
+      <c r="DC5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
